--- a/data/trans_orig/P16B97-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B97-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AA2CAC4-FEC7-48F1-B09B-4AFF43B76EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A06141E9-3A35-4920-AB59-FAA40C7C32A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F70CABA-F3CB-46EF-8A3D-53D9130C50A8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{391393A6-80C0-40BA-914E-2970B703E07F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="151">
   <si>
     <t>Población según si dicho medicamento fue recetado por el médico en 2007 (Tasa respuesta: 3,24%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>98,6%</t>
   </si>
   <si>
-    <t>91,56%</t>
+    <t>92,92%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>95,64%</t>
+    <t>95,6%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>1,4%</t>
   </si>
   <si>
-    <t>8,44%</t>
+    <t>7,08%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>4,36%</t>
+    <t>4,4%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -127,10 +127,10 @@
     <t>97,95%</t>
   </si>
   <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -139,10 +139,10 @@
     <t>2,05%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -172,13 +172,13 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,21%</t>
+    <t>95,09%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>97,3%</t>
+    <t>96,9%</t>
   </si>
   <si>
     <t>2,49%</t>
@@ -187,13 +187,13 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,79%</t>
+    <t>4,91%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>2,7%</t>
+    <t>3,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -205,7 +205,7 @@
     <t>99,53%</t>
   </si>
   <si>
-    <t>97,48%</t>
+    <t>97,62%</t>
   </si>
   <si>
     <t>99,37%</t>
@@ -214,13 +214,13 @@
     <t>99,82%</t>
   </si>
   <si>
-    <t>98,51%</t>
+    <t>98,87%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,52%</t>
+    <t>2,38%</t>
   </si>
   <si>
     <t>0,63%</t>
@@ -229,19 +229,19 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,49%</t>
+    <t>1,13%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>96,62%</t>
+    <t>96,24%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>94,96%</t>
+    <t>95,34%</t>
   </si>
   <si>
     <t>99,49%</t>
@@ -250,13 +250,16 @@
     <t>98,69%</t>
   </si>
   <si>
-    <t>99,68%</t>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>3,38%</t>
+    <t>3,76%</t>
   </si>
   <si>
     <t>1,71%</t>
@@ -265,13 +268,16 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>5,04%</t>
+    <t>4,66%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,32%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>90,95%</t>
@@ -280,13 +286,13 @@
     <t>92,05%</t>
   </si>
   <si>
-    <t>73,22%</t>
+    <t>73,25%</t>
   </si>
   <si>
     <t>94,67%</t>
   </si>
   <si>
-    <t>82,15%</t>
+    <t>84,51%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -295,22 +301,22 @@
     <t>7,95%</t>
   </si>
   <si>
-    <t>26,78%</t>
+    <t>26,75%</t>
   </si>
   <si>
     <t>5,33%</t>
   </si>
   <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>97,2%</t>
+    <t>97,25%</t>
   </si>
   <si>
     <t>99,62%</t>
@@ -319,10 +325,13 @@
     <t>99,03%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>1,25%</t>
@@ -331,13 +340,16 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,8%</t>
+    <t>2,75%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,39%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>Población según si dicho medicamento fue recetado por el médico en 2015 (Tasa respuesta: 8,43%)</t>
@@ -349,19 +361,19 @@
     <t>96,75%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>1,94%</t>
@@ -370,55 +382,55 @@
     <t>3,25%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
   </si>
   <si>
     <t>98,03%</t>
   </si>
   <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>93,19%</t>
@@ -442,37 +454,43 @@
     <t>99,08%</t>
   </si>
   <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>96,95%</t>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>3,05%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
 </sst>
 </file>
@@ -884,7 +902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA69650B-41BC-4215-8969-A0EC73749FC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632DEFA9-DCD5-4EDE-91BE-474DA4266F77}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1635,7 +1653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20736EC0-C247-413C-9566-D616B9A68B39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DF9417-9696-409F-8F34-323E4F5A7636}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1947,10 +1965,10 @@
         <v>69</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,13 +1983,13 @@
         <v>813</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -1980,13 +1998,13 @@
         <v>3273</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1995,13 +2013,13 @@
         <v>4086</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,7 +2090,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2084,10 +2102,10 @@
         <v>43488</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2099,10 +2117,10 @@
         <v>66736</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -2126,7 +2144,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -2135,13 +2153,13 @@
         <v>3754</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2150,13 +2168,13 @@
         <v>3754</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,7 +2245,7 @@
         <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2239,13 +2257,13 @@
         <v>553432</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>831</v>
@@ -2254,13 +2272,13 @@
         <v>900512</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2293,13 @@
         <v>1783</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -2290,13 +2308,13 @@
         <v>7027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -2305,13 +2323,13 @@
         <v>8810</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,7 +2404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56605E76-6C00-4AFB-AE98-344C14FE73AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CE2B82-9694-4EAE-B056-C7F16F375F6C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2403,7 +2421,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2513,7 +2531,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2525,13 +2543,13 @@
         <v>142901</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>223</v>
@@ -2540,13 +2558,13 @@
         <v>234205</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,7 +2585,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2576,13 +2594,13 @@
         <v>4797</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2591,13 +2609,13 @@
         <v>4797</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,10 +2683,10 @@
         <v>105032</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -2683,7 +2701,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -2695,13 +2713,13 @@
         <v>294642</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,13 +2734,13 @@
         <v>2109</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2737,7 +2755,7 @@
         <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2746,13 +2764,13 @@
         <v>4799</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,7 +2841,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2838,7 +2856,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2853,7 +2871,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2877,7 +2895,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2892,7 +2910,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2907,7 +2925,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,10 +2993,10 @@
         <v>228239</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2993,10 +3011,10 @@
         <v>28</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M13" s="7">
         <v>544</v>
@@ -3005,13 +3023,13 @@
         <v>586694</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3044,13 @@
         <v>2109</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -3044,10 +3062,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -3056,13 +3074,13 @@
         <v>9597</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B97-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B97-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A06141E9-3A35-4920-AB59-FAA40C7C32A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E121EBA3-4741-432A-A2BE-074BEF25DF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{391393A6-80C0-40BA-914E-2970B703E07F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9CDC61F4-E654-4473-A0F2-F88708DD3E46}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="147">
   <si>
     <t>Población según si dicho medicamento fue recetado por el médico en 2007 (Tasa respuesta: 3,24%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>98,6%</t>
   </si>
   <si>
-    <t>92,92%</t>
+    <t>92,98%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>95,6%</t>
+    <t>95,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,13 +109,13 @@
     <t>1,4%</t>
   </si>
   <si>
-    <t>7,08%</t>
+    <t>7,02%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>4,4%</t>
+    <t>4,38%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -127,10 +127,10 @@
     <t>97,95%</t>
   </si>
   <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
   </si>
   <si>
     <t>8,64%</t>
@@ -139,10 +139,10 @@
     <t>2,05%</t>
   </si>
   <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -172,7 +172,7 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>95,09%</t>
+    <t>94,73%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -187,7 +187,7 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>4,91%</t>
+    <t>5,27%</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -214,7 +214,7 @@
     <t>99,82%</t>
   </si>
   <si>
-    <t>98,87%</t>
+    <t>98,94%</t>
   </si>
   <si>
     <t>0,47%</t>
@@ -229,19 +229,19 @@
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,13%</t>
+    <t>1,06%</t>
   </si>
   <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>96,24%</t>
+    <t>96,16%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>95,34%</t>
+    <t>95,58%</t>
   </si>
   <si>
     <t>99,49%</t>
@@ -250,16 +250,16 @@
     <t>98,69%</t>
   </si>
   <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>3,76%</t>
+    <t>3,84%</t>
   </si>
   <si>
     <t>1,71%</t>
@@ -268,16 +268,16 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>4,66%</t>
+    <t>4,42%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
   </si>
   <si>
     <t>90,95%</t>
@@ -286,13 +286,13 @@
     <t>92,05%</t>
   </si>
   <si>
-    <t>73,25%</t>
+    <t>74,84%</t>
   </si>
   <si>
     <t>94,67%</t>
   </si>
   <si>
-    <t>84,51%</t>
+    <t>82,35%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -301,136 +301,124 @@
     <t>7,95%</t>
   </si>
   <si>
-    <t>26,75%</t>
+    <t>25,16%</t>
   </si>
   <si>
     <t>5,33%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
   </si>
   <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>97,25%</t>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>Población según si dicho medicamento fue recetado por el médico en 2016 (Tasa respuesta: 8,43%)</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>Población según si dicho medicamento fue recetado por el médico en 2015 (Tasa respuesta: 8,43%)</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>3,91%</t>
   </si>
   <si>
     <t>93,19%</t>
@@ -454,43 +442,43 @@
     <t>99,08%</t>
   </si>
   <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
 </sst>
 </file>
@@ -902,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632DEFA9-DCD5-4EDE-91BE-474DA4266F77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B04BFA-FD79-464D-9CF4-B9D99D29742D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1653,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DF9417-9696-409F-8F34-323E4F5A7636}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DAE8D7-8E57-4883-9646-9F3B15FE687F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2278,7 +2266,7 @@
         <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,7 +2287,7 @@
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -2308,13 +2296,13 @@
         <v>7027</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -2323,13 +2311,13 @@
         <v>8810</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,7 +2392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CE2B82-9694-4EAE-B056-C7F16F375F6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD76C2CF-B399-4621-A43D-422FF881962F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2421,7 +2409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2531,7 +2519,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2543,13 +2531,13 @@
         <v>142901</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>223</v>
@@ -2558,13 +2546,13 @@
         <v>234205</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,7 +2573,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2594,13 +2582,13 @@
         <v>4797</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2609,13 +2597,13 @@
         <v>4797</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,10 +2671,10 @@
         <v>105032</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -2701,7 +2689,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -2713,13 +2701,13 @@
         <v>294642</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,13 +2722,13 @@
         <v>2109</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2755,7 +2743,7 @@
         <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2764,13 +2752,13 @@
         <v>4799</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,7 +2829,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2856,7 +2844,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -2871,7 +2859,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2895,7 +2883,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2910,7 +2898,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2925,7 +2913,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,10 +2981,10 @@
         <v>228239</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3011,10 +2999,10 @@
         <v>28</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>544</v>
@@ -3023,13 +3011,13 @@
         <v>586694</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,13 +3032,13 @@
         <v>2109</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -3062,10 +3050,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -3074,13 +3062,13 @@
         <v>9597</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
